--- a/Version Prof/sam.xlsx
+++ b/Version Prof/sam.xlsx
@@ -1069,7 +1069,7 @@
     <numFmt numFmtId="167" formatCode="#,##0&quot; €&quot;;[RED]\-#,##0&quot; €&quot;"/>
     <numFmt numFmtId="168" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1135,6 +1135,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1625,7 +1631,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="242">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2510,15 +2516,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15561,7 +15571,7 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -19468,8 +19478,8 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20721,9 +20731,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="221" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="B24" s="133" t="n">
         <f aca="false">$J$22*F13</f>
@@ -20754,9 +20764,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="221" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="B25" s="133" t="n">
         <f aca="false">$J$22*F15</f>
@@ -20796,7 +20806,7 @@
       <c r="Y25" s="222"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="221" t="s">
+      <c r="A26" s="223" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="133" t="n">
@@ -20829,7 +20839,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="221" t="s">
+      <c r="A27" s="223" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="133" t="n">
@@ -20863,7 +20873,7 @@
       <c r="S27" s="60"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="221" t="s">
+      <c r="A28" s="223" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="133" t="n">
@@ -20895,9 +20905,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="223" t="s">
-        <v>55</v>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="224" t="s">
+        <v>242</v>
       </c>
       <c r="B29" s="174" t="n">
         <f aca="false">$J$22*F19</f>
@@ -21079,10 +21089,10 @@
     <row r="4" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="97"/>
       <c r="B4" s="98"/>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="225" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="225" t="n">
+      <c r="D4" s="226" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="107" t="s">
@@ -21090,10 +21100,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="227" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="227" t="n">
+      <c r="D5" s="228" t="n">
         <f aca="false">SUM(D2:D4)</f>
         <v>14</v>
       </c>
@@ -21137,11 +21147,11 @@
       <c r="A1" s="196" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="228" t="s">
+      <c r="B1" s="229" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
       <c r="E1" s="125" t="s">
         <v>168</v>
       </c>
@@ -21152,10 +21162,10 @@
       <c r="J1" s="125"/>
       <c r="K1" s="125"/>
       <c r="L1" s="125"/>
-      <c r="M1" s="228" t="s">
+      <c r="M1" s="229" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="228"/>
+      <c r="N1" s="229"/>
       <c r="O1" s="127" t="s">
         <v>170</v>
       </c>
@@ -21168,7 +21178,7 @@
       <c r="C2" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="229" t="s">
+      <c r="D2" s="230" t="s">
         <v>329</v>
       </c>
       <c r="E2" s="133" t="s">
@@ -21187,10 +21197,10 @@
         <v>2018</v>
       </c>
       <c r="L2" s="132"/>
-      <c r="M2" s="230" t="s">
+      <c r="M2" s="231" t="s">
         <v>330</v>
       </c>
-      <c r="N2" s="231" t="s">
+      <c r="N2" s="232" t="s">
         <v>331</v>
       </c>
       <c r="O2" s="127"/>
@@ -21224,49 +21234,49 @@
       <c r="L3" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="230"/>
-      <c r="N3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="232"/>
       <c r="O3" s="139" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="233" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="233" t="n">
+      <c r="B4" s="234" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="234" t="n">
+      <c r="C4" s="235" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="234" t="n">
+      <c r="D4" s="235" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="233"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="237" t="str">
+      <c r="E4" s="234"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="238" t="str">
         <f aca="false">IF(G4=0,"",G4/(B4+C4+D4))</f>
         <v/>
       </c>
-      <c r="I4" s="236"/>
-      <c r="J4" s="237" t="str">
+      <c r="I4" s="237"/>
+      <c r="J4" s="238" t="str">
         <f aca="false">IF(I4=0,"",I4/(B4+C4+D4))</f>
         <v/>
       </c>
-      <c r="K4" s="238"/>
-      <c r="L4" s="239" t="str">
+      <c r="K4" s="239"/>
+      <c r="L4" s="240" t="str">
         <f aca="false">IF(K4=0,"",K4/(B4+C4+D4))</f>
         <v/>
       </c>
-      <c r="M4" s="233" t="n">
+      <c r="M4" s="234" t="n">
         <v>7</v>
       </c>
-      <c r="N4" s="234" t="n">
+      <c r="N4" s="235" t="n">
         <v>8</v>
       </c>
-      <c r="O4" s="240" t="n">
+      <c r="O4" s="241" t="n">
         <f aca="false">'Places EPITA'!D5</f>
         <v>14</v>
       </c>

--- a/Version Prof/sam.xlsx
+++ b/Version Prof/sam.xlsx
@@ -5,20 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Places CCINP" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Coeff CCINP" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Feuille8" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Places CS" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="coeffccs" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Places EPITA" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Coeff EPITA" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Places CS" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="coeffccs" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Places EPITA" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Coeff EPITA" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">coeffccs!$A$1:$Z$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">coeffccs!$A$1:$Z$20</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">S1!$A$1:$N$35</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">S1!$A$3:$DD$3</definedName>
   </definedNames>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="327">
   <si>
     <t xml:space="preserve">Estimation admissibilités à partir des notes du S1</t>
   </si>
@@ -693,280 +692,259 @@
     <t xml:space="preserve">Valeur estimée</t>
   </si>
   <si>
-    <t xml:space="preserve">EIVPPARIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centrale</t>
+    <t xml:space="preserve">CONCOURS CENTRALE SUPELEC 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centrale-Supelec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Généraliste</t>
   </si>
   <si>
     <t xml:space="preserve">Supélec (Gif, Metz et Rennes)</t>
   </si>
   <si>
+    <t xml:space="preserve">Automatique, électronique, électrotechnique, info, télécom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aérospatial, instrumentation, télécom, recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Généraliste (méca, génie civil ; matière,énergie et vivant ; ondes, nano-élec,tél ; génie élec, autom ; syst de prod ; génie syst d'info)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Généraliste (autom, info, syst ind, matériaux, génie civil-environnement, énergétique, hydro-génie-océanique, méca des fluides)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Généraliste (acoustique, chimie, nano-tech, math-info, microélectronique-télécom, optique et photonique, signaux et images)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info syst d'info, matériaux, syst indus, syst méca, réseau télécom (apprentissage en méca et matériaux)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mécanique, productique, génie industriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info de conception, science et techno des matériaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Génie méca, matériaux, gestion et optimisation de l'outil de production, syst auto de prod, prod en ambiance contrôlée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mines Ponts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polytechnique Palaiseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mines ParisTech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mines de Nancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Généraliste (matériaux énergie, informatique)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mines de Saint-Etienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Généraliste (info, énergétique,microélectronique, environnement,gestion et organisation industrielle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponts ParisTech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Généraliste (gestion, droit, management, communication, stat, sciences humaines, méca, probabilités)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISAE - SUPAERO Toulouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Méca, méca et thermo des fluides, génie élec, électronique, méca des solidesdéformables, info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSTA ParisTech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Généraliste (transport terrestres, navals et ferroviaires, énergie chimie et environnement, syst d'info et de communication, ingénierie et math)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Télécom ParisTech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication, électronique, réseaux, signal et images, info, sciences pour l'ingénieur, sciences humaines et sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Télécom Sophia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appli Internet, communications mobiles, multimédia, réseaux, sécurité, techniques de transmission, temps réel et systèmes embarqués</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMT Atlantique (ex Telecom Bretagne)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info des syst d'info, traitement du signal et de l'info, conception matérielle des syst, économie et management, services réseaux et syst télécom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Génie industriel, génie mécanique, systèmes industriels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSEA Cergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronique, informatique, télécommunication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESIEE Amiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatique, électronique, électrotechnique, génie indus, productique, réseaux informatiques, télécommunication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESIEE Noisy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Télécommunication, informatique-réseaux,électronique microélectronique,systèmes embarqués</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mines Télécom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMT Mines Albi-Carmaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Génie des procédés, génie industriel, matériaux,génie des systèmes d'information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSIIE Evry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Génie logiciel,info, économie et management, maths de la décision, réseaux,robotique, banque finance,assurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSTA Bretagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informatique, électronique, mécanique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMT Mines Alès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Généraliste, management, ingénieurs-entrepreneurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMT Lille Douai (Mines Douai)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Génie civil, environnement et industrie, génie énergétique , mécanique , productique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mines Saint-Etienne (ISMIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microélectronique des systèmes embarqués et des logiciels associés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Télécom Sud Paris (Evry)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informatique, électronique et physique, signal et communication, réseaux et télécom, économie et gestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG Géomatique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info, géodésie, topo, photogrammétrie, télédétection, cartographie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSSAT (Lannion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronique et info industrielle, logiciels et systèmes info, optronique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Télécom Nancy (ESIAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info, télécom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Télécom Saint-Etienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telecom 3 en filière généraliste, 2 en filière apprentissage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barre admissiblité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficients oraux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maths1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maths2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phys-Ch1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phys-Ch2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP Ph-Ch</t>
+  </si>
+  <si>
     <t xml:space="preserve">MinesPonts</t>
   </si>
   <si>
-    <t xml:space="preserve">Polytechnique Palaiseau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mines ParisTech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mines de Nancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mines de Saint-Etienne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ponts ParisTech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISAE - SUPAERO Toulouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSTA ParisTech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Télécom ParisTech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Télécom Sophia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMT Atlantique (ex Telecom Bretagne)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArtsetMetier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSEA Cergy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESIEE Amiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESIEE Noisy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISMANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESIXNormandie</t>
+    <t xml:space="preserve">Barre scientifique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus notes écrits français coeff 3, SII coeff 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArtsetMétier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entretien scientifique coeff 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation du dossier du candidat 25 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test psychotechnique 30 min, 15 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglais 15 min, 20 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entretien 35min, 40 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entretien 30 à 40 min, coeff 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epreuve coeff 15 qui évalue : expression écrite et orale, culture scientifique et technique, dynamisme, initiative, motivation</t>
   </si>
   <si>
     <t xml:space="preserve">MinesTelecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMT Mines Albi-Carmaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSIIE Evry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSTA Bretagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMT Mines Alès</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMT Lille Douai (Mines Douai)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mines Saint-Etienne (ISMIN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Télécom Sud Paris (Evry)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG Géomatique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSSAT (Lannion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Télécom Nancy (ESIAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Télécom Saint-Etienne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONCOURS CENTRALE SUPELEC 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centrale-Supelec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généraliste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatique, électronique, électrotechnique, info, télécom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aérospatial, instrumentation, télécom, recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généraliste (méca, génie civil ; matière,énergie et vivant ; ondes, nano-élec,tél ; génie élec, autom ; syst de prod ; génie syst d'info)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généraliste (autom, info, syst ind, matériaux, génie civil-environnement, énergétique, hydro-génie-océanique, méca des fluides)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généraliste (acoustique, chimie, nano-tech, math-info, microélectronique-télécom, optique et photonique, signaux et images)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info syst d'info, matériaux, syst indus, syst méca, réseau télécom (apprentissage en méca et matériaux)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mécanique, productique, génie industriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info de conception, science et techno des matériaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Génie méca, matériaux, gestion et optimisation de l'outil de production, syst auto de prod, prod en ambiance contrôlée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mines Ponts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généraliste (matériaux énergie, informatique)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généraliste (info, énergétique,microélectronique, environnement,gestion et organisation industrielle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généraliste (gestion, droit, management, communication, stat, sciences humaines, méca, probabilités)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Méca, méca et thermo des fluides, génie élec, électronique, méca des solidesdéformables, info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généraliste (transport terrestres, navals et ferroviaires, énergie chimie et environnement, syst d'info et de communication, ingénierie et math)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication, électronique, réseaux, signal et images, info, sciences pour l'ingénieur, sciences humaines et sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appli Internet, communications mobiles, multimédia, réseaux, sécurité, techniques de transmission, temps réel et systèmes embarqués</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info des syst d'info, traitement du signal et de l'info, conception matérielle des syst, économie et management, services réseaux et syst télécom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Génie industriel, génie mécanique, systèmes industriels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronique, informatique, télécommunication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatique, électronique, électrotechnique, génie indus, productique, réseaux informatiques, télécommunication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Télécommunication, informatique-réseaux,électronique microélectronique,systèmes embarqués</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mines Télécom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Génie des procédés, génie industriel, matériaux,génie des systèmes d'information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Génie logiciel,info, économie et management, maths de la décision, réseaux,robotique, banque finance,assurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informatique, électronique, mécanique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généraliste, management, ingénieurs-entrepreneurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Génie civil, environnement et industrie, génie énergétique , mécanique , productique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microélectronique des systèmes embarqués et des logiciels associés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informatique, électronique et physique, signal et communication, réseaux et télécom, économie et gestion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info, géodésie, topo, photogrammétrie, télédétection, cartographie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronique et info industrielle, logiciels et systèmes info, optronique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info, télécom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telecom 3 en filière généraliste, 2 en filière apprentissage)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barre admissiblité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficients oraux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maths1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maths2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phys-Ch1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phys-Ch2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP Ph-Ch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barre scientifique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus notes écrits français coeff 3, SII coeff 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArtsetMétier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entretien scientifique coeff 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation du dossier du candidat 25 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test psychotechnique 30 min, 15 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anglais 15 min, 20 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entretien 35min, 40 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entretien 30 à 40 min, coeff 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epreuve coeff 15 qui évalue : expression écrite et orale, culture scientifique et technique, dynamisme, initiative, motivation</t>
   </si>
   <si>
     <r>
@@ -1069,7 +1047,7 @@
     <numFmt numFmtId="167" formatCode="#,##0&quot; €&quot;;[RED]\-#,##0&quot; €&quot;"/>
     <numFmt numFmtId="168" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1135,12 +1113,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1631,7 +1603,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="240">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2364,10 +2336,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2516,7 +2484,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2524,11 +2492,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2727,7 +2691,7 @@
   </sheetPr>
   <dimension ref="A1:DD39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -18125,628 +18089,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A119"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D113" activeCellId="0" sqref="D113"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="99" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="102" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="102" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="102" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="102" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="102" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="102" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="102" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="102" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="102" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="102" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="102" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="99" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="102" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="102" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="102" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="102" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="102" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="102" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="99" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="102" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="102" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="102" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="102" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="102" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="111" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="111" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="111" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="102" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="102" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="102" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="102" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="102" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="111" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="102" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="102" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="102" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="102" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="183" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="102" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="183" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="102" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="102" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="102" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="102" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="102" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="183" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="102" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="183" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="102" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="183" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="102" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="183" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="102" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="99" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="102" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="102" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="102" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="102" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="102" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="102" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="99" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="102" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="102" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="102" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="102" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="102" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="102" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="102" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="102" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="102" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="99" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="102" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="102" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="102" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="99" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="99" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="102" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="102" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="99" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="111" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="77" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="102" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="102" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="102" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="111" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="102" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="111" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="102" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="102" t="s">
-        <v>253</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:F44"/>
@@ -18780,17 +18122,17 @@
         <v>76</v>
       </c>
       <c r="F1" s="95" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="184" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="184" t="n">
+        <v>220</v>
+      </c>
+      <c r="B2" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="183" t="n">
         <v>110</v>
       </c>
       <c r="D2" s="99" t="s">
@@ -18800,15 +18142,15 @@
         <v>10</v>
       </c>
       <c r="F2" s="101" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="96"/>
-      <c r="B3" s="185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="185" t="n">
+      <c r="B3" s="184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="184" t="n">
         <v>110</v>
       </c>
       <c r="D3" s="102" t="s">
@@ -18818,15 +18160,15 @@
         <v>10</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="96"/>
-      <c r="B4" s="185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="185" t="n">
+      <c r="B4" s="184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="184" t="n">
         <v>110</v>
       </c>
       <c r="D4" s="102" t="s">
@@ -18836,15 +18178,15 @@
         <v>5</v>
       </c>
       <c r="F4" s="104" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="96"/>
-      <c r="B5" s="185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="185" t="n">
+      <c r="B5" s="184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="184" t="n">
         <v>110</v>
       </c>
       <c r="D5" s="102" t="s">
@@ -18854,15 +18196,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="96"/>
-      <c r="B6" s="185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="185" t="n">
+      <c r="B6" s="184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="184" t="n">
         <v>110</v>
       </c>
       <c r="D6" s="102" t="s">
@@ -18872,15 +18214,15 @@
         <v>5</v>
       </c>
       <c r="F6" s="104" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="96"/>
-      <c r="B7" s="185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="185" t="n">
+      <c r="B7" s="184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="184" t="n">
         <v>110</v>
       </c>
       <c r="D7" s="102" t="s">
@@ -18890,15 +18232,15 @@
         <v>10</v>
       </c>
       <c r="F7" s="104" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="96"/>
-      <c r="B8" s="185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="185" t="n">
+      <c r="B8" s="184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="184" t="n">
         <v>110</v>
       </c>
       <c r="D8" s="102" t="s">
@@ -18908,15 +18250,15 @@
         <v>5</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="96"/>
-      <c r="B9" s="185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="185" t="n">
+      <c r="B9" s="184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="184" t="n">
         <v>110</v>
       </c>
       <c r="D9" s="102" t="s">
@@ -18926,7 +18268,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18944,13 +18286,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="96"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="186"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="185"/>
       <c r="D11" s="105" t="s">
         <v>117</v>
       </c>
@@ -18962,7 +18304,7 @@
     </row>
     <row r="12" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="96" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="B12" s="108" t="n">
         <v>23</v>
@@ -18977,7 +18319,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18995,7 +18337,7 @@
         <v>40</v>
       </c>
       <c r="F13" s="104" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19013,7 +18355,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19031,154 +18373,154 @@
     </row>
     <row r="16" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="B16" s="187" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="187" t="n">
+        <v>233</v>
+      </c>
+      <c r="B16" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="186" t="n">
         <v>310</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E16" s="100" t="n">
         <v>2</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="96"/>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="102" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E17" s="103" t="n">
         <v>2</v>
       </c>
       <c r="F17" s="104" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="96"/>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
       <c r="D18" s="102" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E18" s="103" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="104" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="96"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="187"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="102" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E19" s="103" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="104" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="96"/>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
       <c r="D20" s="102" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E20" s="103" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="96"/>
-      <c r="B21" s="187"/>
-      <c r="C21" s="187"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="102" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E21" s="103" t="n">
         <v>2</v>
       </c>
       <c r="F21" s="104" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="96"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
       <c r="D22" s="102" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E22" s="103" t="n">
         <v>6</v>
       </c>
       <c r="F22" s="104" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="96"/>
-      <c r="B23" s="187"/>
-      <c r="C23" s="187"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
       <c r="D23" s="102" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E23" s="103" t="n">
         <v>3</v>
       </c>
       <c r="F23" s="104" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="96"/>
-      <c r="B24" s="187"/>
-      <c r="C24" s="187"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
       <c r="D24" s="102" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E24" s="103" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="96"/>
-      <c r="B25" s="187"/>
-      <c r="C25" s="187"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="102" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="E25" s="103" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="104" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="96"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
       <c r="D26" s="105" t="s">
         <v>117</v>
       </c>
@@ -19189,71 +18531,71 @@
       <c r="F26" s="107"/>
     </row>
     <row r="27" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="188" t="s">
-        <v>276</v>
-      </c>
-      <c r="B27" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="190" t="n">
+      <c r="A27" s="187" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="189" t="n">
         <v>111</v>
       </c>
       <c r="D27" s="99" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="E27" s="100" t="n">
         <v>35</v>
       </c>
       <c r="F27" s="101" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="188"/>
-      <c r="B28" s="189"/>
-      <c r="C28" s="190"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="189"/>
       <c r="D28" s="102" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="E28" s="103" t="n">
         <v>10</v>
       </c>
       <c r="F28" s="104" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="188"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
+      <c r="A29" s="187"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="189"/>
       <c r="D29" s="102" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E29" s="103" t="n">
         <v>15</v>
       </c>
       <c r="F29" s="104" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="188"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="189"/>
       <c r="D30" s="102" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="E30" s="103" t="n">
         <v>5</v>
       </c>
       <c r="F30" s="104" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="188"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="190"/>
+      <c r="A31" s="187"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="189"/>
       <c r="D31" s="105" t="s">
         <v>117</v>
       </c>
@@ -19261,172 +18603,172 @@
         <f aca="false">SUM(E27:E30)</f>
         <v>65</v>
       </c>
-      <c r="F31" s="191"/>
+      <c r="F31" s="190"/>
     </row>
     <row r="32" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="96" t="s">
-        <v>281</v>
-      </c>
-      <c r="B32" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="189" t="n">
+        <v>261</v>
+      </c>
+      <c r="B32" s="188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="188" t="n">
         <v>185</v>
       </c>
       <c r="D32" s="99" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="E32" s="100" t="n">
         <v>2</v>
       </c>
       <c r="F32" s="101" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="96"/>
-      <c r="B33" s="189"/>
-      <c r="C33" s="189"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
       <c r="D33" s="111" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="E33" s="112" t="n">
         <v>5</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="96"/>
-      <c r="B34" s="189"/>
-      <c r="C34" s="189"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="188"/>
       <c r="D34" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="192" t="n">
+        <v>266</v>
+      </c>
+      <c r="E34" s="191" t="n">
         <v>2</v>
       </c>
-      <c r="F34" s="193" t="s">
-        <v>284</v>
+      <c r="F34" s="192" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="35" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="96"/>
-      <c r="B35" s="189"/>
-      <c r="C35" s="189"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="188"/>
       <c r="D35" s="102" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E35" s="103" t="n">
         <v>2</v>
       </c>
       <c r="F35" s="104" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="96"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="189"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="188"/>
       <c r="D36" s="102" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E36" s="103" t="n">
         <v>2</v>
       </c>
       <c r="F36" s="104" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="96"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="189"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
       <c r="D37" s="102" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="E37" s="103" t="n">
         <v>4</v>
       </c>
       <c r="F37" s="104" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="96"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="189"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="188"/>
       <c r="D38" s="111" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="E38" s="112" t="n">
         <v>5</v>
       </c>
       <c r="F38" s="113" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="96"/>
-      <c r="B39" s="189"/>
-      <c r="C39" s="189"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
       <c r="D39" s="102" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="E39" s="103" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="104" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="96"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="189"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
       <c r="D40" s="111" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="E40" s="112" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="113" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="96"/>
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
       <c r="D41" s="102" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="E41" s="103" t="n">
         <v>3</v>
       </c>
       <c r="F41" s="104" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="96"/>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
       <c r="D42" s="102" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="E42" s="103" t="n">
         <v>3</v>
       </c>
       <c r="F42" s="104" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="96"/>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
       <c r="D43" s="105" t="s">
         <v>117</v>
       </c>
@@ -19434,13 +18776,13 @@
         <f aca="false">SUM(E32:E42)</f>
         <v>29</v>
       </c>
-      <c r="F43" s="191"/>
+      <c r="F43" s="190"/>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="194" t="s">
+      <c r="D44" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="195" t="n">
+      <c r="E44" s="194" t="n">
         <f aca="false">SUM(E43,E31,E26,E15,E11)</f>
         <v>262</v>
       </c>
@@ -19471,14 +18813,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -19490,8 +18832,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="196" t="s">
-        <v>293</v>
+      <c r="A1" s="195" t="s">
+        <v>284</v>
       </c>
       <c r="B1" s="125" t="s">
         <v>167</v>
@@ -19504,7 +18846,7 @@
       <c r="H1" s="125"/>
       <c r="I1" s="125"/>
       <c r="J1" s="125" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K1" s="125"/>
       <c r="L1" s="125"/>
@@ -19514,7 +18856,7 @@
       <c r="P1" s="125"/>
       <c r="Q1" s="125"/>
       <c r="R1" s="125" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="S1" s="125"/>
       <c r="T1" s="125"/>
@@ -19528,18 +18870,18 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="196"/>
+      <c r="A2" s="195"/>
       <c r="B2" s="128" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C2" s="129" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D2" s="129" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E2" s="129" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F2" s="129" t="s">
         <v>8</v>
@@ -19570,22 +18912,22 @@
       </c>
       <c r="Q2" s="132"/>
       <c r="R2" s="128" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="S2" s="129" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="T2" s="129" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="U2" s="129" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="V2" s="129" t="s">
         <v>8</v>
       </c>
       <c r="W2" s="129" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="X2" s="129" t="s">
         <v>175</v>
@@ -19596,7 +18938,7 @@
       <c r="Z2" s="127"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="196"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="128"/>
       <c r="C3" s="129"/>
       <c r="D3" s="129"/>
@@ -19642,7 +18984,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="196" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="141" t="n">
@@ -19675,22 +19017,22 @@
       <c r="K4" s="149" t="n">
         <v>40</v>
       </c>
-      <c r="L4" s="198" t="n">
+      <c r="L4" s="197" t="n">
         <v>1516</v>
       </c>
       <c r="M4" s="146" t="n">
         <f aca="false">IF(L4=0,"",L4/(B4+C4+D4+E4+F4+G4+H4+I4))</f>
         <v>15.16</v>
       </c>
-      <c r="N4" s="199" t="n">
+      <c r="N4" s="198" t="n">
         <v>1444</v>
       </c>
       <c r="O4" s="146" t="n">
         <f aca="false">IF(N4=0,"",N4/(B4+C4+D4+E4+F4+G4+H4+I4))</f>
         <v>14.44</v>
       </c>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="200" t="str">
+      <c r="P4" s="198"/>
+      <c r="Q4" s="199" t="str">
         <f aca="false">IF(P4=0,"",P4/(B4+C4+D4+E4+F4+G4+H4+I4))</f>
         <v/>
       </c>
@@ -19718,13 +19060,13 @@
       <c r="Y4" s="143" t="n">
         <v>13</v>
       </c>
-      <c r="Z4" s="201" t="n">
+      <c r="Z4" s="200" t="n">
         <f aca="false">'Places CS'!E2</f>
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="202" t="s">
+      <c r="A5" s="201" t="s">
         <v>222</v>
       </c>
       <c r="B5" s="141"/>
@@ -19766,13 +19108,13 @@
       <c r="W5" s="142"/>
       <c r="X5" s="142"/>
       <c r="Y5" s="143"/>
-      <c r="Z5" s="201" t="n">
+      <c r="Z5" s="200" t="n">
         <f aca="false">'Places CS'!E3</f>
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="201" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="141"/>
@@ -19814,13 +19156,13 @@
       <c r="W6" s="142"/>
       <c r="X6" s="142"/>
       <c r="Y6" s="143"/>
-      <c r="Z6" s="201" t="n">
+      <c r="Z6" s="200" t="n">
         <f aca="false">'Places CS'!E4</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="202" t="s">
+      <c r="A7" s="201" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="141"/>
@@ -19862,13 +19204,13 @@
       <c r="W7" s="142"/>
       <c r="X7" s="142"/>
       <c r="Y7" s="143"/>
-      <c r="Z7" s="201" t="n">
+      <c r="Z7" s="200" t="n">
         <f aca="false">'Places CS'!E5</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="201" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="141"/>
@@ -19910,13 +19252,13 @@
       <c r="W8" s="142"/>
       <c r="X8" s="142"/>
       <c r="Y8" s="143"/>
-      <c r="Z8" s="201" t="n">
+      <c r="Z8" s="200" t="n">
         <f aca="false">'Places CS'!E6</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="202" t="s">
+      <c r="A9" s="201" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="141"/>
@@ -19958,13 +19300,13 @@
       <c r="W9" s="142"/>
       <c r="X9" s="142"/>
       <c r="Y9" s="143"/>
-      <c r="Z9" s="201" t="n">
+      <c r="Z9" s="200" t="n">
         <f aca="false">'Places CS'!E7</f>
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="201" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="141"/>
@@ -20006,13 +19348,13 @@
       <c r="W10" s="142"/>
       <c r="X10" s="142"/>
       <c r="Y10" s="143"/>
-      <c r="Z10" s="201" t="n">
+      <c r="Z10" s="200" t="n">
         <f aca="false">'Places CS'!E8</f>
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="201" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="141"/>
@@ -20054,13 +19396,13 @@
       <c r="W11" s="142"/>
       <c r="X11" s="142"/>
       <c r="Y11" s="143"/>
-      <c r="Z11" s="201" t="n">
+      <c r="Z11" s="200" t="n">
         <f aca="false">'Places CS'!E9</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="201" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="141"/>
@@ -20102,14 +19444,14 @@
       <c r="W12" s="142"/>
       <c r="X12" s="142"/>
       <c r="Y12" s="143"/>
-      <c r="Z12" s="201" t="n">
+      <c r="Z12" s="200" t="n">
         <f aca="false">'Places CS'!E10</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="202" t="s">
-        <v>223</v>
+      <c r="A13" s="201" t="s">
+        <v>292</v>
       </c>
       <c r="B13" s="133" t="n">
         <v>5</v>
@@ -20192,19 +19534,19 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="202"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="204" t="s">
-        <v>301</v>
-      </c>
-      <c r="K14" s="204"/>
+      <c r="A14" s="201"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="203" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="203"/>
       <c r="L14" s="154" t="n">
         <v>190</v>
       </c>
@@ -20226,21 +19568,21 @@
         <f aca="false">P14/F4</f>
         <v>8.65</v>
       </c>
-      <c r="R14" s="202" t="s">
-        <v>302</v>
-      </c>
-      <c r="S14" s="202"/>
-      <c r="T14" s="202"/>
-      <c r="U14" s="202"/>
-      <c r="V14" s="202"/>
-      <c r="W14" s="202"/>
-      <c r="X14" s="202"/>
-      <c r="Y14" s="202"/>
+      <c r="R14" s="201" t="s">
+        <v>294</v>
+      </c>
+      <c r="S14" s="201"/>
+      <c r="T14" s="201"/>
+      <c r="U14" s="201"/>
+      <c r="V14" s="201"/>
+      <c r="W14" s="201"/>
+      <c r="X14" s="201"/>
+      <c r="Y14" s="201"/>
       <c r="Z14" s="158"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="202" t="s">
-        <v>303</v>
+      <c r="A15" s="201" t="s">
+        <v>295</v>
       </c>
       <c r="B15" s="133" t="n">
         <v>11</v>
@@ -20290,10 +19632,10 @@
         <v>10.69</v>
       </c>
       <c r="R15" s="152" t="s">
-        <v>304</v>
-      </c>
-      <c r="S15" s="205"/>
-      <c r="T15" s="206"/>
+        <v>296</v>
+      </c>
+      <c r="S15" s="204"/>
+      <c r="T15" s="205"/>
       <c r="U15" s="44"/>
       <c r="V15" s="134" t="n">
         <v>30</v>
@@ -20302,7 +19644,7 @@
       <c r="X15" s="134" t="n">
         <v>25</v>
       </c>
-      <c r="Y15" s="207" t="n">
+      <c r="Y15" s="206" t="n">
         <v>20</v>
       </c>
       <c r="Z15" s="158" t="n">
@@ -20311,7 +19653,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="202" t="s">
+      <c r="A16" s="201" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="133" t="n">
@@ -20352,36 +19694,36 @@
         <f aca="false">IF(N16=0,"",N16/(B16+C16+D16+E16+F16+G16+H16+I16))</f>
         <v>10.0125</v>
       </c>
-      <c r="P16" s="208" t="n">
+      <c r="P16" s="207" t="n">
         <v>400.5</v>
       </c>
       <c r="Q16" s="156" t="n">
         <f aca="false">IF(P16=0,"",P16/(B16+C16+D16+E16+F16+G16+H16+I16))</f>
         <v>10.0125</v>
       </c>
-      <c r="R16" s="209" t="s">
-        <v>305</v>
-      </c>
-      <c r="S16" s="209"/>
-      <c r="T16" s="210" t="s">
-        <v>306</v>
-      </c>
-      <c r="U16" s="210"/>
-      <c r="V16" s="210" t="s">
-        <v>307</v>
-      </c>
-      <c r="W16" s="210"/>
-      <c r="X16" s="211" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y16" s="211"/>
+      <c r="R16" s="208" t="s">
+        <v>297</v>
+      </c>
+      <c r="S16" s="208"/>
+      <c r="T16" s="209" t="s">
+        <v>298</v>
+      </c>
+      <c r="U16" s="209"/>
+      <c r="V16" s="209" t="s">
+        <v>299</v>
+      </c>
+      <c r="W16" s="209"/>
+      <c r="X16" s="210" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y16" s="210"/>
       <c r="Z16" s="158" t="n">
         <f aca="false">'Places CS'!E12</f>
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="202" t="s">
+      <c r="A17" s="201" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="133" t="n">
@@ -20422,30 +19764,30 @@
         <f aca="false">IF(N17=0,"",N17/(B17+C17+D17+E17+F17+G17+H17+I17))</f>
         <v>3.43</v>
       </c>
-      <c r="P17" s="208" t="n">
+      <c r="P17" s="207" t="n">
         <v>343</v>
       </c>
       <c r="Q17" s="156" t="n">
         <f aca="false">IF(P17=0,"",P17/(B17+C17+D17+E17+F17+G17+H17+I17))</f>
         <v>3.43</v>
       </c>
-      <c r="R17" s="202" t="s">
-        <v>309</v>
-      </c>
-      <c r="S17" s="202"/>
-      <c r="T17" s="202"/>
-      <c r="U17" s="202"/>
-      <c r="V17" s="202"/>
-      <c r="W17" s="202"/>
-      <c r="X17" s="202"/>
-      <c r="Y17" s="202"/>
+      <c r="R17" s="201" t="s">
+        <v>301</v>
+      </c>
+      <c r="S17" s="201"/>
+      <c r="T17" s="201"/>
+      <c r="U17" s="201"/>
+      <c r="V17" s="201"/>
+      <c r="W17" s="201"/>
+      <c r="X17" s="201"/>
+      <c r="Y17" s="201"/>
       <c r="Z17" s="158" t="n">
         <f aca="false">'Places CS'!E13</f>
         <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="201" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="133" t="n">
@@ -20486,7 +19828,7 @@
         <f aca="false">IF(N18=0,"",N18/(B18+C18+D18+E18+F18+G18+H18+I18))</f>
         <v>6.34444444444444</v>
       </c>
-      <c r="P18" s="208" t="n">
+      <c r="P18" s="207" t="n">
         <v>285.5</v>
       </c>
       <c r="Q18" s="156" t="n">
@@ -20494,7 +19836,7 @@
         <v>6.34444444444444</v>
       </c>
       <c r="R18" s="157" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="S18" s="157"/>
       <c r="T18" s="157"/>
@@ -20509,28 +19851,28 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="202" t="s">
-        <v>242</v>
+      <c r="A19" s="201" t="s">
+        <v>303</v>
       </c>
       <c r="B19" s="138" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="212" t="n">
+      <c r="C19" s="211" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="212" t="n">
+      <c r="D19" s="211" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="212" t="n">
+      <c r="E19" s="211" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="212" t="n">
+      <c r="F19" s="211" t="n">
         <v>6</v>
       </c>
-      <c r="G19" s="212" t="n">
+      <c r="G19" s="211" t="n">
         <v>5</v>
       </c>
-      <c r="H19" s="212" t="n">
+      <c r="H19" s="211" t="n">
         <v>3</v>
       </c>
       <c r="I19" s="130" t="n">
@@ -20591,16 +19933,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="213" t="s">
-        <v>311</v>
+      <c r="A20" s="212" t="s">
+        <v>304</v>
       </c>
       <c r="B20" s="138"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
       <c r="I20" s="130"/>
       <c r="J20" s="128"/>
       <c r="K20" s="129"/>
@@ -20623,28 +19965,28 @@
         <f aca="false">IF(P20=0,"",P20/(B19+C19+D19+E19+F19+G19+H19+I19))</f>
         <v>9.49666666666667</v>
       </c>
-      <c r="R20" s="214" t="s">
-        <v>312</v>
-      </c>
-      <c r="S20" s="214"/>
-      <c r="T20" s="215" t="s">
-        <v>313</v>
-      </c>
-      <c r="U20" s="215"/>
-      <c r="V20" s="215" t="s">
-        <v>314</v>
-      </c>
-      <c r="W20" s="215"/>
-      <c r="X20" s="216" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y20" s="216"/>
+      <c r="R20" s="213" t="s">
+        <v>305</v>
+      </c>
+      <c r="S20" s="213"/>
+      <c r="T20" s="214" t="s">
+        <v>306</v>
+      </c>
+      <c r="U20" s="214"/>
+      <c r="V20" s="214" t="s">
+        <v>307</v>
+      </c>
+      <c r="W20" s="214"/>
+      <c r="X20" s="215" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y20" s="215"/>
       <c r="Z20" s="70"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="77"/>
       <c r="B21" s="125" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C21" s="125"/>
       <c r="D21" s="125"/>
@@ -20652,17 +19994,17 @@
       <c r="F21" s="125"/>
       <c r="G21" s="125"/>
       <c r="H21" s="125"/>
-      <c r="I21" s="217" t="s">
-        <v>317</v>
-      </c>
-      <c r="J21" s="218" t="n">
+      <c r="I21" s="216" t="s">
+        <v>310</v>
+      </c>
+      <c r="J21" s="217" t="n">
         <v>0.25</v>
       </c>
-      <c r="K21" s="217"/>
-      <c r="L21" s="217"/>
-      <c r="M21" s="217"/>
+      <c r="K21" s="216"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="216"/>
       <c r="P21" s="182" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20688,19 +20030,19 @@
       <c r="H22" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="I22" s="217" t="s">
-        <v>319</v>
-      </c>
-      <c r="J22" s="218" t="n">
+      <c r="I22" s="216" t="s">
+        <v>312</v>
+      </c>
+      <c r="J22" s="217" t="n">
         <v>0.75</v>
       </c>
-      <c r="K22" s="219"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="220" t="s">
-        <v>320</v>
+      <c r="A23" s="219" t="s">
+        <v>313</v>
       </c>
       <c r="B23" s="141" t="n">
         <f aca="false">$J$22*F4</f>
@@ -20732,8 +20074,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="221" t="s">
-        <v>223</v>
+      <c r="A24" s="220" t="s">
+        <v>292</v>
       </c>
       <c r="B24" s="133" t="n">
         <f aca="false">$J$22*F13</f>
@@ -20765,8 +20107,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="221" t="s">
-        <v>303</v>
+      <c r="A25" s="220" t="s">
+        <v>295</v>
       </c>
       <c r="B25" s="133" t="n">
         <f aca="false">$J$22*F15</f>
@@ -20796,17 +20138,17 @@
         <f aca="false">$J$21*F15</f>
         <v>6.25</v>
       </c>
-      <c r="R25" s="222"/>
-      <c r="S25" s="222"/>
-      <c r="T25" s="222"/>
-      <c r="U25" s="222"/>
-      <c r="V25" s="222"/>
-      <c r="W25" s="222"/>
-      <c r="X25" s="222"/>
-      <c r="Y25" s="222"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="223" t="s">
+      <c r="A26" s="220" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="133" t="n">
@@ -20839,7 +20181,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="223" t="s">
+      <c r="A27" s="220" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="133" t="n">
@@ -20873,7 +20215,7 @@
       <c r="S27" s="60"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="223" t="s">
+      <c r="A28" s="220" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="133" t="n">
@@ -20906,8 +20248,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="224" t="s">
-        <v>242</v>
+      <c r="A29" s="222" t="s">
+        <v>303</v>
       </c>
       <c r="B29" s="174" t="n">
         <f aca="false">$J$22*F19</f>
@@ -21019,7 +20361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
@@ -21050,10 +20392,10 @@
         <v>75</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E1" s="95" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21064,46 +20406,46 @@
         <v>85</v>
       </c>
       <c r="C2" s="99" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D2" s="100" t="n">
         <v>6</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="97"/>
       <c r="B3" s="98"/>
       <c r="C3" s="102" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D3" s="103" t="n">
         <v>8</v>
       </c>
       <c r="E3" s="104" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" s="77" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="97"/>
       <c r="B4" s="98"/>
-      <c r="C4" s="225" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="226" t="n">
+      <c r="C4" s="223" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="224" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="107" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="227" t="s">
+      <c r="C5" s="225" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="228" t="n">
+      <c r="D5" s="226" t="n">
         <f aca="false">SUM(D2:D4)</f>
         <v>14</v>
       </c>
@@ -21123,7 +20465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
@@ -21144,14 +20486,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="196" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="229" t="s">
+      <c r="A1" s="195" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="227" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="E1" s="125" t="s">
         <v>168</v>
       </c>
@@ -21162,24 +20504,24 @@
       <c r="J1" s="125"/>
       <c r="K1" s="125"/>
       <c r="L1" s="125"/>
-      <c r="M1" s="229" t="s">
+      <c r="M1" s="227" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="229"/>
+      <c r="N1" s="227"/>
       <c r="O1" s="127" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="196"/>
+      <c r="A2" s="195"/>
       <c r="B2" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="230" t="s">
-        <v>329</v>
+      <c r="D2" s="228" t="s">
+        <v>322</v>
       </c>
       <c r="E2" s="133" t="s">
         <v>173</v>
@@ -21197,19 +20539,19 @@
         <v>2018</v>
       </c>
       <c r="L2" s="132"/>
-      <c r="M2" s="231" t="s">
-        <v>330</v>
-      </c>
-      <c r="N2" s="232" t="s">
-        <v>331</v>
+      <c r="M2" s="229" t="s">
+        <v>323</v>
+      </c>
+      <c r="N2" s="230" t="s">
+        <v>324</v>
       </c>
       <c r="O2" s="127"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="196"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="138"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
       <c r="E3" s="138" t="s">
         <v>177</v>
       </c>
@@ -21234,56 +20576,56 @@
       <c r="L3" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="231"/>
-      <c r="N3" s="232"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
       <c r="O3" s="139" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="233" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" s="234" t="n">
+      <c r="A4" s="231" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="232" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="235" t="n">
+      <c r="C4" s="233" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="235" t="n">
+      <c r="D4" s="233" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="234"/>
-      <c r="F4" s="236"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="238" t="str">
+      <c r="E4" s="232"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="235"/>
+      <c r="H4" s="236" t="str">
         <f aca="false">IF(G4=0,"",G4/(B4+C4+D4))</f>
         <v/>
       </c>
-      <c r="I4" s="237"/>
-      <c r="J4" s="238" t="str">
+      <c r="I4" s="235"/>
+      <c r="J4" s="236" t="str">
         <f aca="false">IF(I4=0,"",I4/(B4+C4+D4))</f>
         <v/>
       </c>
-      <c r="K4" s="239"/>
-      <c r="L4" s="240" t="str">
+      <c r="K4" s="237"/>
+      <c r="L4" s="238" t="str">
         <f aca="false">IF(K4=0,"",K4/(B4+C4+D4))</f>
         <v/>
       </c>
-      <c r="M4" s="234" t="n">
+      <c r="M4" s="232" t="n">
         <v>7</v>
       </c>
-      <c r="N4" s="235" t="n">
+      <c r="N4" s="233" t="n">
         <v>8</v>
       </c>
-      <c r="O4" s="241" t="n">
+      <c r="O4" s="239" t="n">
         <f aca="false">'Places EPITA'!D5</f>
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
